--- a/public/assets/excel/sample_attachments.xlsx
+++ b/public/assets/excel/sample_attachments.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">attachment_file_name</t>
   </si>
   <si>
-    <t xml:space="preserve">title_id</t>
+    <t xml:space="preserve">title_code</t>
   </si>
   <si>
     <t xml:space="preserve">file_path</t>
@@ -138,12 +138,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -342,83 +346,83 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="6.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.29"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E2" s="2" t="n">
         <v>44941</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3" s="2" t="n">
         <v>44977</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E4" s="2" t="n">
         <v>44995</v>
       </c>
     </row>

--- a/public/assets/excel/sample_attachments.xlsx
+++ b/public/assets/excel/sample_attachments.xlsx
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t xml:space="preserve">import_code</t>
+  </si>
   <si>
     <t xml:space="preserve">delegation_code</t>
   </si>
@@ -72,7 +75,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -93,6 +96,12 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="0"/>
     </font>
   </fonts>
@@ -138,7 +147,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -148,6 +157,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -343,15 +356,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="O9" activeCellId="0" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="6.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.09"/>
@@ -359,7 +372,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -374,55 +387,67 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
+      <c r="A2" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="n">
         <v>44941</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
+      <c r="A3" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="n">
         <v>44977</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
+      <c r="A4" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="2" t="n">
         <v>44995</v>
       </c>
     </row>

--- a/public/assets/excel/sample_attachments.xlsx
+++ b/public/assets/excel/sample_attachments.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">import_code</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t xml:space="preserve">document_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uploaded_date</t>
   </si>
   <si>
     <t xml:space="preserve">DA23-001</t>
@@ -75,7 +78,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -96,12 +99,6 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <family val="0"/>
     </font>
   </fonts>
@@ -160,7 +157,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -356,10 +353,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O9" activeCellId="0" sqref="O9"/>
+      <selection pane="topLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -369,10 +366,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="6.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -390,24 +388,30 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" s="2" t="n">
+        <v>44941</v>
+      </c>
+      <c r="G2" s="2" t="n">
         <v>44941</v>
       </c>
     </row>
@@ -416,19 +420,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>44977</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>44941</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -436,19 +443,22 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>44995</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>44941</v>
       </c>
     </row>
   </sheetData>
